--- a/FA_TestData_Login_Logout_21C.xlsx
+++ b/FA_TestData_Login_Logout_21C.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF_Selenium_IGA-master\venv\Selenium\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud Test Automation\GNB\Scripts\Fixed Asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241B11E2-7394-4760-B5A0-921AC59A988D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67715464-E28D-42E5-9639-BF68A6EC9236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3444" windowWidth="17280" windowHeight="8916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input_Value" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>UserName</t>
   </si>
@@ -42,15 +42,6 @@
   </si>
   <si>
     <t>URL</t>
-  </si>
-  <si>
-    <t>https://edrx.fa.us2.oraclecloud.com</t>
-  </si>
-  <si>
-    <t>AUTOMATION_TESTING</t>
-  </si>
-  <si>
-    <t>Oracle123</t>
   </si>
 </sst>
 </file>
@@ -472,18 +463,18 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.6328125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.26953125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.26953125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="31.6640625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.21875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.21875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="8.77734375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -495,22 +486,13 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A2" s="5"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{72FA6CC1-AC3F-429E-873D-5E4CA24ADD55}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -522,12 +504,12 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,7 +525,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FA_TestData_Login_Logout_21C.xlsx
+++ b/FA_TestData_Login_Logout_21C.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud Test Automation\GNB\Scripts\Fixed Asset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Backup_IGA_Master\UIAF_Selenium_IGA\venv\Selenium\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67715464-E28D-42E5-9639-BF68A6EC9236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A5977D-C63A-4CF0-9D49-261AB85659E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3444" windowWidth="17280" windowHeight="8916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input_Value" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>UserName</t>
   </si>
@@ -42,6 +42,15 @@
   </si>
   <si>
     <t>URL</t>
+  </si>
+  <si>
+    <t>https://emgi-dev4.login.ca3.oraclecloud.com</t>
+  </si>
+  <si>
+    <t>Anusuya.Lakkannai@snb.ca</t>
+  </si>
+  <si>
+    <t>Aishu@123</t>
   </si>
 </sst>
 </file>
@@ -463,7 +472,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:C2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -486,9 +495,15 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
